--- a/Results_May_15_mostrecentupdateAugust3/coral_cc_Only_Models_With_Surrogate_Current_Thesis.xlsx
+++ b/Results_May_15_mostrecentupdateAugust3/coral_cc_Only_Models_With_Surrogate_Current_Thesis.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="300" windowWidth="11172" windowHeight="9012"/>
+    <workbookView xWindow="384" yWindow="300" windowWidth="11172" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="coral_cc_Only_Models_With_Surro" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>K</t>
   </si>
@@ -56,6 +57,21 @@
   </si>
   <si>
     <t>coralcover + site + site*coralcover</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>K*</t>
+  </si>
+  <si>
+    <t>Delta AICc</t>
+  </si>
+  <si>
+    <t>Akaike weight</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
   </si>
 </sst>
 </file>
@@ -65,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +230,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +424,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -537,6 +566,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -582,7 +622,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -591,6 +631,9 @@
     <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,4 +1179,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1044.21235624367</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.58073990702091205</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-518.01139139197801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1045.6317048410799</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.4193485974042199</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.28561041405607801</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-517.67299527768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1047.15966772924</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.9473114855647999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.133039656041153</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-511.93277504108801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1058.2415879221501</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14.029231678481899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.2188248187313698E-4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-526.06419018749102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1062.53519279037</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18.322836546702099</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.0985735826300898E-5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-520.73101102933299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1064.15337513861</v>
+      </c>
+      <c r="D7" s="7">
+        <v>19.9410188949423</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.71546641574198E-5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-513.531233023852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>